--- a/TravaAltaPut_BBSE3_BBSET225_BBSET230.xlsx
+++ b/TravaAltaPut_BBSE3_BBSET225_BBSET230.xlsx
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.35</v>
+        <v>23.77</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.39</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
